--- a/database.xlsx
+++ b/database.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -522,6 +522,100 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>20 symbol</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>123123123123</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Almaty</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+77777777777</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>KZ123123123123123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>123456789012</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+12345678901</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>KZ123456789012345678</t>
         </is>
       </c>
     </row>
@@ -748,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
@@ -929,6 +1023,53 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123123123123</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Shymkent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+79099099092</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>KZ123123213123123123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
